--- a/Figure2/thermodynamics calculation_v9_Figure2_20231019_upload.xlsx
+++ b/Figure2/thermodynamics calculation_v9_Figure2_20231019_upload.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED7EEF8-BF7A-4F1E-849A-0D9202F3A200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EC7365-ED4A-48AF-9909-9F142D406D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall equation equilibrium" sheetId="45" r:id="rId1"/>
@@ -2151,7 +2151,7 @@
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.00000000000000_ "/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.0000"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2461,7 +2461,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2514,7 +2514,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2541,7 +2541,6 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4443,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA97A8A3-0703-47D7-B4B2-6EF6B78CCC5E}">
   <dimension ref="A1:BI112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0"/>
+    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26361,16 +26360,16 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
       <c r="K1" t="s">
@@ -26435,7 +26434,7 @@
       <c r="H2" s="19"/>
       <c r="P2" s="19"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AI2" s="51" t="s">
         <v>136</v>
       </c>
       <c r="AK2" s="24">
@@ -38207,10 +38206,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>139</v>
       </c>
       <c r="D1" s="42" t="s">
@@ -38222,7 +38221,7 @@
       <c r="F1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>138</v>
       </c>
     </row>
@@ -38589,7 +38588,7 @@
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="24"/>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="49" t="s">
         <v>133</v>
       </c>
     </row>
@@ -38633,8 +38632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E4AD77-20CC-4A9F-B729-4391C90F2F9E}">
   <dimension ref="A1:BJ112"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38765,7 +38764,7 @@
       </c>
       <c r="AA1" s="10"/>
       <c r="AB1" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC1" t="s">
         <v>24</v>
@@ -38864,7 +38863,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>136</v>
       </c>
       <c r="O2">
@@ -38993,7 +38992,7 @@
         <v>45.940189682004132</v>
       </c>
       <c r="AF3" s="26">
-        <f t="shared" ref="AF3:AF34" si="5">0.0083145*I3*LN((C3^2*(F3)^2)/E3)</f>
+        <f>0.0083145*I3*LN((C3^2*(F3)^2)/E3)</f>
         <v>-62.928105338950282</v>
       </c>
       <c r="AG3" s="26">
@@ -39021,7 +39020,7 @@
         <v>1</v>
       </c>
       <c r="AS3" s="26">
-        <f t="shared" ref="AS3:AS66" si="6">$M$12+3*$M$7-4*$M$4-$M$3-$M$6</f>
+        <f t="shared" ref="AS3:AS66" si="5">$M$12+3*$M$7-4*$M$4-$M$3-$M$6</f>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT3" s="26">
@@ -39029,7 +39028,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU3" s="26">
-        <f t="shared" ref="AU3:AU34" si="7">0.0083145*I3*LN((G3)/((F3)^4*K3))</f>
+        <f t="shared" ref="AU3:AU34" si="6">0.0083145*I3*LN((G3)/((F3)^4*K3))</f>
         <v>51.006812114937468</v>
       </c>
       <c r="AV3" s="26">
@@ -39050,11 +39049,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB3" s="40">
-        <f t="shared" ref="BB3:BB34" si="8">0.0083145*I3*LN(((G3)*K3)/C3)</f>
+        <f t="shared" ref="BB3:BB34" si="7">0.0083145*I3*LN(((G3)*K3)/C3)</f>
         <v>13.74133745894483</v>
       </c>
       <c r="BC3" s="40">
-        <f t="shared" ref="BC3:BC67" si="9">BA3+BB3</f>
+        <f t="shared" ref="BC3:BC67" si="8">BA3+BB3</f>
         <v>-18.242796769243167</v>
       </c>
       <c r="BD3" s="20"/>
@@ -39071,7 +39070,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI3" s="26">
-        <f t="shared" ref="BI3:BI34" si="10">0.0083145*I3*LN((K3^2*(F3)^4)/C3)</f>
+        <f t="shared" ref="BI3:BI34" si="9">0.0083145*I3*LN((K3^2*(F3)^4)/C3)</f>
         <v>-37.265474655992641</v>
       </c>
       <c r="BJ3" s="26">
@@ -39105,7 +39104,7 @@
         <v>0.29656744957108727</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="11">33+273</f>
+        <f t="shared" ref="I4:I67" si="10">33+273</f>
         <v>306</v>
       </c>
       <c r="J4">
@@ -39157,7 +39156,7 @@
         <v>3.9915920720932214</v>
       </c>
       <c r="Z4" s="26">
-        <f t="shared" ref="Z4:Z67" si="12">X4+Y4</f>
+        <f t="shared" ref="Z4:Z67" si="11">X4+Y4</f>
         <v>4.0697128774623881</v>
       </c>
       <c r="AA4" s="20"/>
@@ -39170,11 +39169,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE4" s="26">
-        <f t="shared" ref="AE4:AE67" si="13">2*$M$9+$M$5+2*$M$4-$M$11-2*$M$7</f>
+        <f t="shared" ref="AE4:AE67" si="12">2*$M$9+$M$5+2*$M$4-$M$11-2*$M$7</f>
         <v>45.940189682004132</v>
       </c>
       <c r="AF4" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AF3:AF34" si="13">0.0083145*I4*LN((C4^2*(F4)^2)/E4)</f>
         <v>-72.84676014399362</v>
       </c>
       <c r="AG4" s="26">
@@ -39202,7 +39201,7 @@
         <v>2</v>
       </c>
       <c r="AS4" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT4" s="26">
@@ -39210,7 +39209,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU4" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.32367009190882</v>
       </c>
       <c r="AV4" s="26">
@@ -39231,11 +39230,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB4" s="40">
+        <f t="shared" si="7"/>
+        <v>8.5683093037698175</v>
+      </c>
+      <c r="BC4" s="40">
         <f t="shared" si="8"/>
-        <v>8.5683093037698175</v>
-      </c>
-      <c r="BC4" s="40">
-        <f t="shared" si="9"/>
         <v>-23.415824924418182</v>
       </c>
       <c r="BD4" s="20"/>
@@ -39252,7 +39251,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI4" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-115.75536078813901</v>
       </c>
       <c r="BJ4" s="26">
@@ -39286,7 +39285,7 @@
         <v>0.33943151332398069</v>
       </c>
       <c r="I5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J5">
@@ -39348,11 +39347,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE5" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF5" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF5" s="35">
-        <f t="shared" si="5"/>
         <v>-75.651003997934822</v>
       </c>
       <c r="AG5" s="35">
@@ -39373,7 +39372,7 @@
         <v>3</v>
       </c>
       <c r="AS5" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT5" s="35">
@@ -39381,7 +39380,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU5" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.71538068835015</v>
       </c>
       <c r="AV5" s="35">
@@ -39400,11 +39399,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB5" s="8">
+        <f t="shared" si="7"/>
+        <v>11.238395462796369</v>
+      </c>
+      <c r="BC5" s="8">
         <f t="shared" si="8"/>
-        <v>11.238395462796369</v>
-      </c>
-      <c r="BC5" s="8">
-        <f t="shared" si="9"/>
         <v>-20.745738765391629</v>
       </c>
       <c r="BF5">
@@ -39419,7 +39418,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI5" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-113.4769852255538</v>
       </c>
       <c r="BJ5" s="35">
@@ -39453,7 +39452,7 @@
         <v>0.36759939817554188</v>
       </c>
       <c r="I6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J6">
@@ -39502,7 +39501,7 @@
         <v>-6.0861286400765247</v>
       </c>
       <c r="Z6" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.0080078347073576</v>
       </c>
       <c r="AA6" s="7"/>
@@ -39514,11 +39513,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE6" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF6" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF6" s="35">
-        <f t="shared" si="5"/>
         <v>-76.68859117807618</v>
       </c>
       <c r="AG6" s="35">
@@ -39539,7 +39538,7 @@
         <v>4</v>
       </c>
       <c r="AS6" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT6" s="35">
@@ -39547,7 +39546,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU6" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.77562247592266</v>
       </c>
       <c r="AV6" s="35">
@@ -39566,11 +39565,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB6" s="8">
+        <f t="shared" si="7"/>
+        <v>11.601887463821882</v>
+      </c>
+      <c r="BC6" s="8">
         <f t="shared" si="8"/>
-        <v>11.601887463821882</v>
-      </c>
-      <c r="BC6" s="8">
-        <f t="shared" si="9"/>
         <v>-20.382246764366116</v>
       </c>
       <c r="BF6">
@@ -39585,7 +39584,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI6" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-113.17373501210076</v>
       </c>
       <c r="BJ6" s="35">
@@ -39619,7 +39618,7 @@
         <v>0.3754784261020101</v>
       </c>
       <c r="I7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J7">
@@ -39669,7 +39668,7 @@
         <v>-7.4933711766255628</v>
       </c>
       <c r="Z7" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-7.4152503712563957</v>
       </c>
       <c r="AA7" s="7"/>
@@ -39681,11 +39680,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE7" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF7" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF7" s="35">
-        <f t="shared" si="5"/>
         <v>-75.346122599156359</v>
       </c>
       <c r="AG7" s="35">
@@ -39706,7 +39705,7 @@
         <v>5</v>
       </c>
       <c r="AS7" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT7" s="35">
@@ -39714,7 +39713,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU7" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.87540782865057</v>
       </c>
       <c r="AV7" s="35">
@@ -39733,11 +39732,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB7" s="8">
+        <f t="shared" si="7"/>
+        <v>10.955826778974293</v>
+      </c>
+      <c r="BC7" s="8">
         <f t="shared" si="8"/>
-        <v>10.955826778974293</v>
-      </c>
-      <c r="BC7" s="8">
-        <f t="shared" si="9"/>
         <v>-21.028307449213706</v>
       </c>
       <c r="BF7">
@@ -39752,7 +39751,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI7" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-113.91958104967628</v>
       </c>
       <c r="BJ7" s="35">
@@ -39786,7 +39785,7 @@
         <v>0.37650745549293879</v>
       </c>
       <c r="I8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J8">
@@ -39836,7 +39835,7 @@
         <v>-6.0433925361044842</v>
       </c>
       <c r="Z8" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.9652717307353171</v>
       </c>
       <c r="AA8" s="7"/>
@@ -39848,11 +39847,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE8" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF8" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF8" s="35">
-        <f t="shared" si="5"/>
         <v>-76.156394787965169</v>
       </c>
       <c r="AG8" s="35">
@@ -39873,7 +39872,7 @@
         <v>6</v>
       </c>
       <c r="AS8" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT8" s="35">
@@ -39881,7 +39880,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU8" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.87621737416006</v>
       </c>
       <c r="AV8" s="35">
@@ -39900,11 +39899,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB8" s="8">
+        <f t="shared" si="7"/>
+        <v>10.817226197232447</v>
+      </c>
+      <c r="BC8" s="8">
         <f t="shared" si="8"/>
-        <v>10.817226197232447</v>
-      </c>
-      <c r="BC8" s="8">
-        <f t="shared" si="9"/>
         <v>-21.16690803095555</v>
       </c>
       <c r="BF8">
@@ -39919,7 +39918,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI8" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-114.05899117692761</v>
       </c>
       <c r="BJ8" s="35">
@@ -39953,7 +39952,7 @@
         <v>0.3745967676820221</v>
       </c>
       <c r="I9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J9">
@@ -40003,7 +40002,7 @@
         <v>-5.145153099342048</v>
       </c>
       <c r="Z9" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.0670322939728809</v>
       </c>
       <c r="AA9" s="7"/>
@@ -40015,11 +40014,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE9" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF9" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF9" s="35">
-        <f t="shared" si="5"/>
         <v>-74.962369011412676</v>
       </c>
       <c r="AG9" s="35">
@@ -40040,7 +40039,7 @@
         <v>7</v>
       </c>
       <c r="AS9" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT9" s="35">
@@ -40048,7 +40047,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU9" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.84444923259517</v>
       </c>
       <c r="AV9" s="35">
@@ -40067,11 +40066,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB9" s="8">
+        <f t="shared" si="7"/>
+        <v>10.811013174243111</v>
+      </c>
+      <c r="BC9" s="8">
         <f t="shared" si="8"/>
-        <v>10.811013174243111</v>
-      </c>
-      <c r="BC9" s="8">
-        <f t="shared" si="9"/>
         <v>-21.173121053944886</v>
       </c>
       <c r="BF9">
@@ -40086,7 +40085,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI9" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-114.03343605835205</v>
       </c>
       <c r="BJ9" s="35">
@@ -40120,7 +40119,7 @@
         <v>0.36555551612921194</v>
       </c>
       <c r="I10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J10">
@@ -40170,7 +40169,7 @@
         <v>-6.132314371261617</v>
       </c>
       <c r="Z10" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.0541935658924499</v>
       </c>
       <c r="AA10" s="7"/>
@@ -40182,11 +40181,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE10" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF10" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF10" s="35">
-        <f t="shared" si="5"/>
         <v>-74.462021084434994</v>
       </c>
       <c r="AG10" s="35">
@@ -40207,7 +40206,7 @@
         <v>8</v>
       </c>
       <c r="AS10" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT10" s="35">
@@ -40215,7 +40214,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU10" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.64955736461995</v>
       </c>
       <c r="AV10" s="35">
@@ -40234,11 +40233,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB10" s="8">
+        <f t="shared" si="7"/>
+        <v>11.041106768557155</v>
+      </c>
+      <c r="BC10" s="8">
         <f t="shared" si="8"/>
-        <v>11.041106768557155</v>
-      </c>
-      <c r="BC10" s="8">
-        <f t="shared" si="9"/>
         <v>-20.943027459630841</v>
       </c>
       <c r="BF10">
@@ -40253,7 +40252,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI10" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-113.6084505960628</v>
       </c>
       <c r="BJ10" s="35">
@@ -40287,7 +40286,7 @@
         <v>0.36429654000849032</v>
       </c>
       <c r="I11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J11">
@@ -40337,7 +40336,7 @@
         <v>-5.6788739092876064</v>
       </c>
       <c r="Z11" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.6007531039184393</v>
       </c>
       <c r="AA11" s="7"/>
@@ -40349,11 +40348,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE11" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF11" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF11" s="35">
-        <f t="shared" si="5"/>
         <v>-74.519569449582207</v>
       </c>
       <c r="AG11" s="35">
@@ -40374,7 +40373,7 @@
         <v>9</v>
       </c>
       <c r="AS11" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT11" s="35">
@@ -40382,7 +40381,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU11" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.58328918118767</v>
       </c>
       <c r="AV11" s="35">
@@ -40401,11 +40400,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB11" s="8">
+        <f t="shared" si="7"/>
+        <v>11.343988527192565</v>
+      </c>
+      <c r="BC11" s="8">
         <f t="shared" si="8"/>
-        <v>11.343988527192565</v>
-      </c>
-      <c r="BC11" s="8">
-        <f t="shared" si="9"/>
         <v>-20.640145700995433</v>
       </c>
       <c r="BF11">
@@ -40420,7 +40419,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI11" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-113.23930065399512</v>
       </c>
       <c r="BJ11" s="35">
@@ -40454,7 +40453,7 @@
         <v>0.37759514590238547</v>
       </c>
       <c r="I12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J12">
@@ -40504,7 +40503,7 @@
         <v>-7.1083019123483302</v>
       </c>
       <c r="Z12" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-7.0301811069791631</v>
       </c>
       <c r="AA12" s="7"/>
@@ -40516,11 +40515,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE12" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF12" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF12" s="35">
-        <f t="shared" si="5"/>
         <v>-73.940584598417487</v>
       </c>
       <c r="AG12" s="35">
@@ -40541,7 +40540,7 @@
         <v>10</v>
       </c>
       <c r="AS12" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT12" s="35">
@@ -40549,7 +40548,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU12" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.56541496096273</v>
       </c>
       <c r="AV12" s="35">
@@ -40568,11 +40567,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB12" s="8">
+        <f t="shared" si="7"/>
+        <v>10.847489941606135</v>
+      </c>
+      <c r="BC12" s="8">
         <f t="shared" si="8"/>
-        <v>10.847489941606135</v>
-      </c>
-      <c r="BC12" s="8">
-        <f t="shared" si="9"/>
         <v>-21.136644286581863</v>
       </c>
       <c r="BF12">
@@ -40587,7 +40586,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI12" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-113.71792501935658</v>
       </c>
       <c r="BJ12" s="35">
@@ -40621,7 +40620,7 @@
         <v>0.37382606294411713</v>
       </c>
       <c r="I13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J13">
@@ -40671,7 +40670,7 @@
         <v>-6.3213392295239075</v>
       </c>
       <c r="Z13" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.2432184241547404</v>
       </c>
       <c r="AA13" s="7"/>
@@ -40683,11 +40682,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE13" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF13" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF13" s="35">
-        <f t="shared" si="5"/>
         <v>-73.447224349172387</v>
       </c>
       <c r="AG13" s="35">
@@ -40708,7 +40707,7 @@
         <v>11</v>
       </c>
       <c r="AS13" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT13" s="35">
@@ -40716,7 +40715,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU13" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.58988792146297</v>
       </c>
       <c r="AV13" s="35">
@@ -40735,11 +40734,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB13" s="8">
+        <f t="shared" si="7"/>
+        <v>10.291938642378348</v>
+      </c>
+      <c r="BC13" s="8">
         <f t="shared" si="8"/>
-        <v>10.291938642378348</v>
-      </c>
-      <c r="BC13" s="8">
-        <f t="shared" si="9"/>
         <v>-21.69219558580965</v>
       </c>
       <c r="BF13">
@@ -40754,7 +40753,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI13" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-114.29794927908462</v>
       </c>
       <c r="BJ13" s="35">
@@ -40788,7 +40787,7 @@
         <v>0.38490792761715575</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J14">
@@ -40838,7 +40837,7 @@
         <v>-16.350665332570056</v>
       </c>
       <c r="Z14" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-16.272544527200889</v>
       </c>
       <c r="AA14" s="7"/>
@@ -40850,11 +40849,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE14" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF14" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF14" s="35">
-        <f t="shared" si="5"/>
         <v>-64.276282910321896</v>
       </c>
       <c r="AG14" s="35">
@@ -40875,7 +40874,7 @@
         <v>12</v>
       </c>
       <c r="AS14" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT14" s="35">
@@ -40883,7 +40882,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU14" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.56164648024176</v>
       </c>
       <c r="AV14" s="35">
@@ -40902,11 +40901,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB14" s="8">
+        <f t="shared" si="7"/>
+        <v>10.306047487078448</v>
+      </c>
+      <c r="BC14" s="8">
         <f t="shared" si="8"/>
-        <v>10.306047487078448</v>
-      </c>
-      <c r="BC14" s="8">
-        <f t="shared" si="9"/>
         <v>-21.678086741109549</v>
       </c>
       <c r="BF14">
@@ -40921,7 +40920,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI14" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-114.2555989931633</v>
       </c>
       <c r="BJ14" s="35">
@@ -40955,7 +40954,7 @@
         <v>0.38538390778298209</v>
       </c>
       <c r="I15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J15">
@@ -41000,7 +40999,7 @@
         <v>-5.8660618904622108</v>
       </c>
       <c r="Z15" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.7879410850930437</v>
       </c>
       <c r="AA15" s="7"/>
@@ -41012,11 +41011,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE15" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF15" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF15" s="35">
-        <f t="shared" si="5"/>
         <v>-74.157400232526967</v>
       </c>
       <c r="AG15" s="35">
@@ -41037,7 +41036,7 @@
         <v>13</v>
       </c>
       <c r="AS15" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT15" s="35">
@@ -41045,7 +41044,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU15" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.60962509895265</v>
       </c>
       <c r="AV15" s="35">
@@ -41064,11 +41063,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB15" s="8">
+        <f t="shared" si="7"/>
+        <v>10.82554069795855</v>
+      </c>
+      <c r="BC15" s="8">
         <f t="shared" si="8"/>
-        <v>10.82554069795855</v>
-      </c>
-      <c r="BC15" s="8">
-        <f t="shared" si="9"/>
         <v>-21.158593530229446</v>
       </c>
       <c r="BF15">
@@ -41083,7 +41082,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI15" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-113.78408440099412</v>
       </c>
       <c r="BJ15" s="35">
@@ -41117,7 +41116,7 @@
         <v>0.38384667682911122</v>
       </c>
       <c r="I16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J16">
@@ -41162,7 +41161,7 @@
         <v>-3.4364047844723027</v>
       </c>
       <c r="Z16" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3.3582839791031356</v>
       </c>
       <c r="AA16" s="7"/>
@@ -41174,11 +41173,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE16" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF16" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF16" s="35">
-        <f t="shared" si="5"/>
         <v>-72.036463588061565</v>
       </c>
       <c r="AG16" s="35">
@@ -41199,7 +41198,7 @@
         <v>14</v>
       </c>
       <c r="AS16" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT16" s="35">
@@ -41207,7 +41206,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU16" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.66681677949809</v>
       </c>
       <c r="AV16" s="35">
@@ -41226,11 +41225,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB16" s="8">
+        <f t="shared" si="7"/>
+        <v>7.8319319359356534</v>
+      </c>
+      <c r="BC16" s="8">
         <f t="shared" si="8"/>
-        <v>7.8319319359356534</v>
-      </c>
-      <c r="BC16" s="8">
-        <f t="shared" si="9"/>
         <v>-24.152202292252344</v>
       </c>
       <c r="BF16">
@@ -41245,7 +41244,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI16" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-116.83488484356243</v>
       </c>
       <c r="BJ16" s="35">
@@ -41279,7 +41278,7 @@
         <v>0.39655234615459323</v>
       </c>
       <c r="I17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J17">
@@ -41324,7 +41323,7 @@
         <v>-1.9046560165484689</v>
       </c>
       <c r="Z17" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.8265352111793018</v>
       </c>
       <c r="AA17" s="7"/>
@@ -41336,11 +41335,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE17" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF17" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF17" s="35">
-        <f t="shared" si="5"/>
         <v>-71.916403358120562</v>
       </c>
       <c r="AG17" s="35">
@@ -41361,7 +41360,7 @@
         <v>15</v>
       </c>
       <c r="AS17" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT17" s="35">
@@ -41369,7 +41368,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU17" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.64699255379176</v>
       </c>
       <c r="AV17" s="35">
@@ -41388,11 +41387,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB17" s="8">
+        <f t="shared" si="7"/>
+        <v>6.9817676366957624</v>
+      </c>
+      <c r="BC17" s="8">
         <f t="shared" si="8"/>
-        <v>6.9817676366957624</v>
-      </c>
-      <c r="BC17" s="8">
-        <f t="shared" si="9"/>
         <v>-25.002366591492233</v>
       </c>
       <c r="BF17">
@@ -41407,7 +41406,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI17" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-117.66522491709601</v>
       </c>
       <c r="BJ17" s="35">
@@ -41441,7 +41440,7 @@
         <v>0.39484856888868292</v>
       </c>
       <c r="I18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J18">
@@ -41486,7 +41485,7 @@
         <v>-0.49688187672512968</v>
       </c>
       <c r="Z18" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.41876107135596258</v>
       </c>
       <c r="AA18" s="7"/>
@@ -41498,11 +41497,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE18" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF18" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF18" s="35">
-        <f t="shared" si="5"/>
         <v>-48.02232985169185</v>
       </c>
       <c r="AG18" s="35">
@@ -41523,7 +41522,7 @@
         <v>16</v>
       </c>
       <c r="AS18" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT18" s="35">
@@ -41531,7 +41530,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU18" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70.04671155457801</v>
       </c>
       <c r="AV18" s="35">
@@ -41550,11 +41549,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB18" s="8">
+        <f t="shared" si="7"/>
+        <v>8.8456934668067646</v>
+      </c>
+      <c r="BC18" s="8">
         <f t="shared" si="8"/>
-        <v>8.8456934668067646</v>
-      </c>
-      <c r="BC18" s="8">
-        <f t="shared" si="9"/>
         <v>-23.138440761381233</v>
       </c>
       <c r="BF18">
@@ -41569,7 +41568,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI18" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-61.201018087771246</v>
       </c>
       <c r="BJ18" s="35">
@@ -41603,7 +41602,7 @@
         <v>0.39291487790099811</v>
       </c>
       <c r="I19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J19">
@@ -41648,7 +41647,7 @@
         <v>1.3902454553249586</v>
       </c>
       <c r="Z19" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.4683662606941257</v>
       </c>
       <c r="AA19" s="7"/>
@@ -41660,11 +41659,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE19" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF19" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF19" s="35">
-        <f t="shared" si="5"/>
         <v>-41.111820333671631</v>
       </c>
       <c r="AG19" s="35">
@@ -41685,7 +41684,7 @@
         <v>17</v>
       </c>
       <c r="AS19" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT19" s="35">
@@ -41693,7 +41692,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU19" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61.904562685816607</v>
       </c>
       <c r="AV19" s="35">
@@ -41712,11 +41711,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB19" s="8">
+        <f t="shared" si="7"/>
+        <v>5.5578438787934434</v>
+      </c>
+      <c r="BC19" s="8">
         <f t="shared" si="8"/>
-        <v>5.5578438787934434</v>
-      </c>
-      <c r="BC19" s="8">
-        <f t="shared" si="9"/>
         <v>-26.426290349394556</v>
       </c>
       <c r="BF19">
@@ -41731,7 +41730,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI19" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-56.346718807023159</v>
       </c>
       <c r="BJ19" s="35">
@@ -41765,7 +41764,7 @@
         <v>0.39124312690560503</v>
       </c>
       <c r="I20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J20">
@@ -41810,7 +41809,7 @@
         <v>1.7835573958175854</v>
       </c>
       <c r="Z20" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.8616782011867525</v>
       </c>
       <c r="AA20" s="7"/>
@@ -41822,11 +41821,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE20" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF20" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF20" s="35">
-        <f t="shared" si="5"/>
         <v>-38.814945378357947</v>
       </c>
       <c r="AG20" s="35">
@@ -41847,7 +41846,7 @@
         <v>18</v>
       </c>
       <c r="AS20" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT20" s="35">
@@ -41855,7 +41854,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU20" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>56.030738689506599</v>
       </c>
       <c r="AV20" s="35">
@@ -41874,11 +41873,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB20" s="8">
+        <f t="shared" si="7"/>
+        <v>6.0564942271167883</v>
+      </c>
+      <c r="BC20" s="8">
         <f t="shared" si="8"/>
-        <v>6.0564942271167883</v>
-      </c>
-      <c r="BC20" s="8">
-        <f t="shared" si="9"/>
         <v>-25.927640001071211</v>
       </c>
       <c r="BF20">
@@ -41893,7 +41892,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI20" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-49.974244462389812</v>
       </c>
       <c r="BJ20" s="35">
@@ -41927,7 +41926,7 @@
         <v>0.39874149903674239</v>
       </c>
       <c r="I21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J21">
@@ -41972,7 +41971,7 @@
         <v>2.6133174110843709</v>
       </c>
       <c r="Z21" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.691438216453538</v>
       </c>
       <c r="AA21" s="7"/>
@@ -41984,11 +41983,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE21" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF21" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF21" s="35">
-        <f t="shared" si="5"/>
         <v>-36.119299828495031</v>
       </c>
       <c r="AG21" s="35">
@@ -42009,7 +42008,7 @@
         <v>19</v>
       </c>
       <c r="AS21" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT21" s="35">
@@ -42017,7 +42016,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU21" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>51.20827586672808</v>
       </c>
       <c r="AV21" s="35">
@@ -42036,11 +42035,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB21" s="8">
+        <f t="shared" si="7"/>
+        <v>5.4691167778495915</v>
+      </c>
+      <c r="BC21" s="8">
         <f t="shared" si="8"/>
-        <v>5.4691167778495915</v>
-      </c>
-      <c r="BC21" s="8">
-        <f t="shared" si="9"/>
         <v>-26.515017450338405</v>
       </c>
       <c r="BF21">
@@ -42055,7 +42054,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI21" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-45.739159088878488</v>
       </c>
       <c r="BJ21" s="35">
@@ -42089,7 +42088,7 @@
         <v>0.37110489341547853</v>
       </c>
       <c r="I22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J22">
@@ -42134,7 +42133,7 @@
         <v>-0.49688187672512968</v>
       </c>
       <c r="Z22" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.41876107135596258</v>
       </c>
       <c r="AA22" s="7"/>
@@ -42146,11 +42145,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE22" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF22" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF22" s="35">
-        <f t="shared" si="5"/>
         <v>-75.308747303218553</v>
       </c>
       <c r="AG22" s="35">
@@ -42171,7 +42170,7 @@
         <v>20</v>
       </c>
       <c r="AS22" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT22" s="35">
@@ -42179,7 +42178,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU22" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.65370912628853</v>
       </c>
       <c r="AV22" s="35">
@@ -42198,11 +42197,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB22" s="8">
+        <f t="shared" si="7"/>
+        <v>9.0877119634631995</v>
+      </c>
+      <c r="BC22" s="8">
         <f t="shared" si="8"/>
-        <v>9.0877119634631995</v>
-      </c>
-      <c r="BC22" s="8">
-        <f t="shared" si="9"/>
         <v>-22.896422264724798</v>
       </c>
       <c r="BF22">
@@ -42217,7 +42216,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI22" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-115.56599716282533</v>
       </c>
       <c r="BJ22" s="35">
@@ -42251,7 +42250,7 @@
         <v>0.37798571447167606</v>
       </c>
       <c r="I23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J23">
@@ -42296,7 +42295,7 @@
         <v>-5.5498808337305814</v>
       </c>
       <c r="Z23" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.4717600283614143</v>
       </c>
       <c r="AA23" s="7"/>
@@ -42308,11 +42307,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE23" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF23" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF23" s="35">
-        <f t="shared" si="5"/>
         <v>-73.398581793458945</v>
       </c>
       <c r="AG23" s="35">
@@ -42333,7 +42332,7 @@
         <v>21</v>
       </c>
       <c r="AS23" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT23" s="35">
@@ -42341,7 +42340,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU23" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.57589659804641</v>
       </c>
       <c r="AV23" s="35">
@@ -42360,11 +42359,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB23" s="8">
+        <f t="shared" si="7"/>
+        <v>9.9125491667585486</v>
+      </c>
+      <c r="BC23" s="8">
         <f t="shared" si="8"/>
-        <v>9.9125491667585486</v>
-      </c>
-      <c r="BC23" s="8">
-        <f t="shared" si="9"/>
         <v>-22.071585061429449</v>
       </c>
       <c r="BF23">
@@ -42379,7 +42378,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI23" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-114.66334743128787</v>
       </c>
       <c r="BJ23" s="35">
@@ -42413,7 +42412,7 @@
         <v>0.37911124060398199</v>
       </c>
       <c r="I24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J24">
@@ -42459,7 +42458,7 @@
         <v>-5.7659482631222758</v>
       </c>
       <c r="Z24" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.6878274577531087</v>
       </c>
       <c r="AA24" s="7"/>
@@ -42471,11 +42470,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE24" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF24" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF24" s="35">
-        <f t="shared" si="5"/>
         <v>-71.961394858465567</v>
       </c>
       <c r="AG24" s="35">
@@ -42496,7 +42495,7 @@
         <v>22</v>
       </c>
       <c r="AS24" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT24" s="35">
@@ -42504,7 +42503,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU24" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.6349018878916</v>
       </c>
       <c r="AV24" s="35">
@@ -42523,11 +42522,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB24" s="8">
+        <f t="shared" si="7"/>
+        <v>8.9887207519344781</v>
+      </c>
+      <c r="BC24" s="8">
         <f t="shared" si="8"/>
-        <v>8.9887207519344781</v>
-      </c>
-      <c r="BC24" s="8">
-        <f t="shared" si="9"/>
         <v>-22.995413476253518</v>
       </c>
       <c r="BF24">
@@ -42542,7 +42541,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI24" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-115.64618113595714</v>
       </c>
       <c r="BJ24" s="35">
@@ -42576,7 +42575,7 @@
         <v>0.39522995736085081</v>
       </c>
       <c r="I25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J25">
@@ -42622,7 +42621,7 @@
         <v>-2.4498595840279167</v>
       </c>
       <c r="Z25" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.3717387786587496</v>
       </c>
       <c r="AA25" s="7"/>
@@ -42634,11 +42633,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE25" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF25" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF25" s="35">
-        <f t="shared" si="5"/>
         <v>-70.028147899553133</v>
       </c>
       <c r="AG25" s="35">
@@ -42659,7 +42658,7 @@
         <v>23</v>
       </c>
       <c r="AS25" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT25" s="35">
@@ -42667,7 +42666,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU25" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.59484636775828</v>
       </c>
       <c r="AV25" s="35">
@@ -42686,11 +42685,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB25" s="8">
+        <f t="shared" si="7"/>
+        <v>6.6506335935831737</v>
+      </c>
+      <c r="BC25" s="8">
         <f t="shared" si="8"/>
-        <v>6.6506335935831737</v>
-      </c>
-      <c r="BC25" s="8">
-        <f t="shared" si="9"/>
         <v>-25.333500634604825</v>
       </c>
       <c r="BF25">
@@ -42705,7 +42704,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI25" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-117.9442127741751</v>
       </c>
       <c r="BJ25" s="35">
@@ -42739,7 +42738,7 @@
         <v>0.40284059330544453</v>
       </c>
       <c r="I26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J26">
@@ -42785,7 +42784,7 @@
         <v>1.067809928949172</v>
       </c>
       <c r="Z26" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.1459307343183391</v>
       </c>
       <c r="AA26" s="7"/>
@@ -42797,11 +42796,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE26" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF26" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF26" s="35">
-        <f t="shared" si="5"/>
         <v>-42.71181234691948</v>
       </c>
       <c r="AG26" s="35">
@@ -42822,7 +42821,7 @@
         <v>24</v>
       </c>
       <c r="AS26" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT26" s="35">
@@ -42830,7 +42829,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU26" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68.498667968839158</v>
       </c>
       <c r="AV26" s="35">
@@ -42849,11 +42848,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB26" s="8">
+        <f t="shared" si="7"/>
+        <v>5.3620864038441356</v>
+      </c>
+      <c r="BC26" s="8">
         <f t="shared" si="8"/>
-        <v>5.3620864038441356</v>
-      </c>
-      <c r="BC26" s="8">
-        <f t="shared" si="9"/>
         <v>-26.622047824343863</v>
       </c>
       <c r="BF26">
@@ -42868,7 +42867,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI26" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-63.136581564995026</v>
       </c>
       <c r="BJ26" s="35">
@@ -42902,7 +42901,7 @@
         <v>0.40096246674032743</v>
       </c>
       <c r="I27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J27">
@@ -42948,7 +42947,7 @@
         <v>1.7270959533276078</v>
       </c>
       <c r="Z27" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.8052167586967749</v>
       </c>
       <c r="AA27" s="7"/>
@@ -42960,11 +42959,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE27" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF27" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF27" s="35">
-        <f t="shared" si="5"/>
         <v>-41.483176088999535</v>
       </c>
       <c r="AG27" s="35">
@@ -42985,7 +42984,7 @@
         <v>25</v>
       </c>
       <c r="AS27" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT27" s="35">
@@ -42993,7 +42992,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU27" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64.729291769900897</v>
       </c>
       <c r="AV27" s="35">
@@ -43012,11 +43011,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB27" s="8">
+        <f t="shared" si="7"/>
+        <v>5.1070361055703559</v>
+      </c>
+      <c r="BC27" s="8">
         <f t="shared" si="8"/>
-        <v>5.1070361055703559</v>
-      </c>
-      <c r="BC27" s="8">
-        <f t="shared" si="9"/>
         <v>-26.877098122617642</v>
       </c>
       <c r="BF27">
@@ -43031,7 +43030,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI27" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-59.622255664330545</v>
       </c>
       <c r="BJ27" s="35">
@@ -43065,7 +43064,7 @@
         <v>0.40916018971853135</v>
       </c>
       <c r="I28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J28">
@@ -43111,7 +43110,7 @@
         <v>1.5606520387227905</v>
       </c>
       <c r="Z28" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.6387728440919576</v>
       </c>
       <c r="AA28" s="7"/>
@@ -43123,11 +43122,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE28" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF28" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF28" s="35">
-        <f t="shared" si="5"/>
         <v>-41.42294950621659</v>
       </c>
       <c r="AG28" s="35">
@@ -43148,7 +43147,7 @@
         <v>26</v>
       </c>
       <c r="AS28" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT28" s="35">
@@ -43156,7 +43155,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU28" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65.049798862883193</v>
       </c>
       <c r="AV28" s="35">
@@ -43175,11 +43174,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB28" s="8">
+        <f t="shared" si="7"/>
+        <v>5.0693801799410725</v>
+      </c>
+      <c r="BC28" s="8">
         <f t="shared" si="8"/>
-        <v>5.0693801799410725</v>
-      </c>
-      <c r="BC28" s="8">
-        <f t="shared" si="9"/>
         <v>-26.914754048246927</v>
       </c>
       <c r="BF28">
@@ -43194,7 +43193,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI28" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-59.98041868294213</v>
       </c>
       <c r="BJ28" s="35">
@@ -43228,7 +43227,7 @@
         <v>0.41002430715104182</v>
       </c>
       <c r="I29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J29">
@@ -43274,7 +43273,7 @@
         <v>1.1862353388183351</v>
       </c>
       <c r="Z29" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.2643561441875022</v>
       </c>
       <c r="AA29" s="7"/>
@@ -43286,11 +43285,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE29" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF29" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF29" s="35">
-        <f t="shared" si="5"/>
         <v>-41.475108127361921</v>
       </c>
       <c r="AG29" s="35">
@@ -43311,7 +43310,7 @@
         <v>27</v>
       </c>
       <c r="AS29" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT29" s="35">
@@ -43319,7 +43318,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU29" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65.667770150567463</v>
       </c>
       <c r="AV29" s="35">
@@ -43338,11 +43337,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB29" s="8">
+        <f t="shared" si="7"/>
+        <v>4.9333032336825138</v>
+      </c>
+      <c r="BC29" s="8">
         <f t="shared" si="8"/>
-        <v>4.9333032336825138</v>
-      </c>
-      <c r="BC29" s="8">
-        <f t="shared" si="9"/>
         <v>-27.050830994505482</v>
       </c>
       <c r="BF29">
@@ -43357,7 +43356,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI29" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-60.734466916884955</v>
       </c>
       <c r="BJ29" s="35">
@@ -43391,7 +43390,7 @@
         <v>0.40894350111205158</v>
       </c>
       <c r="I30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J30">
@@ -43437,7 +43436,7 @@
         <v>0.62801962077609608</v>
       </c>
       <c r="Z30" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.70614042614526318</v>
       </c>
       <c r="AA30" s="7"/>
@@ -43449,11 +43448,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE30" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF30" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF30" s="35">
-        <f t="shared" si="5"/>
         <v>-40.14557973171177</v>
       </c>
       <c r="AG30" s="35">
@@ -43474,7 +43473,7 @@
         <v>28</v>
       </c>
       <c r="AS30" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT30" s="35">
@@ -43482,7 +43481,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU30" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>63.377506016812781</v>
       </c>
       <c r="AV30" s="35">
@@ -43501,11 +43500,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB30" s="8">
+        <f t="shared" si="7"/>
+        <v>4.9320450453967499</v>
+      </c>
+      <c r="BC30" s="8">
         <f t="shared" si="8"/>
-        <v>4.9320450453967499</v>
-      </c>
-      <c r="BC30" s="8">
-        <f t="shared" si="9"/>
         <v>-27.052089182791249</v>
       </c>
       <c r="BF30">
@@ -43520,7 +43519,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI30" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-58.445460971416026</v>
       </c>
       <c r="BJ30" s="35">
@@ -43554,7 +43553,7 @@
         <v>0.41559777194901071</v>
       </c>
       <c r="I31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J31">
@@ -43600,7 +43599,7 @@
         <v>-0.57004979265503597</v>
       </c>
       <c r="Z31" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.49192898728586887</v>
       </c>
       <c r="AA31" s="7"/>
@@ -43612,11 +43611,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE31" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF31" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF31" s="35">
-        <f t="shared" si="5"/>
         <v>-41.048379008940152</v>
       </c>
       <c r="AG31" s="35">
@@ -43637,7 +43636,7 @@
         <v>29</v>
       </c>
       <c r="AS31" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT31" s="35">
@@ -43645,7 +43644,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU31" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65.447865732101846</v>
       </c>
       <c r="AV31" s="35">
@@ -43664,11 +43663,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB31" s="8">
+        <f t="shared" si="7"/>
+        <v>4.8280462215331603</v>
+      </c>
+      <c r="BC31" s="8">
         <f t="shared" si="8"/>
-        <v>4.8280462215331603</v>
-      </c>
-      <c r="BC31" s="8">
-        <f t="shared" si="9"/>
         <v>-27.156088006654837</v>
       </c>
       <c r="BF31">
@@ -43683,7 +43682,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI31" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-60.619819510568682</v>
       </c>
       <c r="BJ31" s="35">
@@ -43717,7 +43716,7 @@
         <v>0.38555180915088533</v>
       </c>
       <c r="I32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J32">
@@ -43763,7 +43762,7 @@
         <v>-3.2762921198701682</v>
       </c>
       <c r="Z32" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3.1981713145010011</v>
       </c>
       <c r="AA32" s="7"/>
@@ -43775,11 +43774,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE32" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF32" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF32" s="35">
-        <f t="shared" si="5"/>
         <v>-71.384420374375551</v>
       </c>
       <c r="AG32" s="35">
@@ -43800,7 +43799,7 @@
         <v>30</v>
       </c>
       <c r="AS32" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT32" s="35">
@@ -43808,7 +43807,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU32" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.56109718619548</v>
       </c>
       <c r="AV32" s="35">
@@ -43827,11 +43826,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB32" s="8">
+        <f t="shared" si="7"/>
+        <v>7.2424752210567105</v>
+      </c>
+      <c r="BC32" s="8">
         <f t="shared" si="8"/>
-        <v>7.2424752210567105</v>
-      </c>
-      <c r="BC32" s="8">
-        <f t="shared" si="9"/>
         <v>-24.741659007131286</v>
       </c>
       <c r="BF32">
@@ -43846,7 +43845,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI32" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-117.31862196513879</v>
       </c>
       <c r="BJ32" s="35">
@@ -43880,7 +43879,7 @@
         <v>0.39322710977279568</v>
       </c>
       <c r="I33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J33">
@@ -43926,7 +43925,7 @@
         <v>-2.7765138049091398</v>
       </c>
       <c r="Z33" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.6983929995399727</v>
       </c>
       <c r="AA33" s="7"/>
@@ -43938,11 +43937,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE33" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF33" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF33" s="35">
-        <f t="shared" si="5"/>
         <v>-70.411356776160048</v>
       </c>
       <c r="AG33" s="35">
@@ -43963,7 +43962,7 @@
         <v>31</v>
       </c>
       <c r="AS33" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT33" s="35">
@@ -43971,7 +43970,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU33" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124.4589432552558</v>
       </c>
       <c r="AV33" s="35">
@@ -43990,11 +43989,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB33" s="8">
+        <f t="shared" si="7"/>
+        <v>6.7166437759350313</v>
+      </c>
+      <c r="BC33" s="8">
         <f t="shared" si="8"/>
-        <v>6.7166437759350313</v>
-      </c>
-      <c r="BC33" s="8">
-        <f t="shared" si="9"/>
         <v>-25.267490452252964</v>
       </c>
       <c r="BF33">
@@ -44009,7 +44008,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI33" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-117.74229947932078</v>
       </c>
       <c r="BJ33" s="35">
@@ -44043,7 +44042,7 @@
         <v>0.40090241039470614</v>
       </c>
       <c r="I34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J34">
@@ -44089,7 +44088,7 @@
         <v>-0.96142315599144113</v>
       </c>
       <c r="Z34" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.88330235062227402</v>
       </c>
       <c r="AA34" s="7"/>
@@ -44101,11 +44100,11 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE34" s="35">
+        <f t="shared" si="12"/>
+        <v>45.940189682004132</v>
+      </c>
+      <c r="AF34" s="35">
         <f t="shared" si="13"/>
-        <v>45.940189682004132</v>
-      </c>
-      <c r="AF34" s="35">
-        <f t="shared" si="5"/>
         <v>-42.070284709316276</v>
       </c>
       <c r="AG34" s="35">
@@ -44126,7 +44125,7 @@
         <v>32</v>
       </c>
       <c r="AS34" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT34" s="35">
@@ -44134,7 +44133,7 @@
         <v>-132.69243334643369</v>
       </c>
       <c r="AU34" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68.283182555277023</v>
       </c>
       <c r="AV34" s="35">
@@ -44153,11 +44152,11 @@
         <v>-31.984134228187997</v>
       </c>
       <c r="BB34" s="8">
+        <f t="shared" si="7"/>
+        <v>5.4725314251920247</v>
+      </c>
+      <c r="BC34" s="8">
         <f t="shared" si="8"/>
-        <v>5.4725314251920247</v>
-      </c>
-      <c r="BC34" s="8">
-        <f t="shared" si="9"/>
         <v>-26.511602802995974</v>
       </c>
       <c r="BF34">
@@ -44172,7 +44171,7 @@
         <v>100.70829911824558</v>
       </c>
       <c r="BI34" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-62.810651130084999</v>
       </c>
       <c r="BJ34" s="35">
@@ -44206,7 +44205,7 @@
         <v>0.38196295264918684</v>
       </c>
       <c r="I35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J35">
@@ -44252,7 +44251,7 @@
         <v>-1.5655080971474711</v>
       </c>
       <c r="Z35" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.487387291778304</v>
       </c>
       <c r="AA35" s="7"/>
@@ -44264,7 +44263,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE35" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF35" s="35">
@@ -44289,7 +44288,7 @@
         <v>33</v>
       </c>
       <c r="AS35" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT35" s="35">
@@ -44320,7 +44319,7 @@
         <v>6.8877755508000726</v>
       </c>
       <c r="BC35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-25.096358677387926</v>
       </c>
       <c r="BF35">
@@ -44369,7 +44368,7 @@
         <v>0.38821136578840226</v>
       </c>
       <c r="I36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J36">
@@ -44414,7 +44413,7 @@
         <v>-2.5154259211411603</v>
       </c>
       <c r="Z36" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.4373051157719932</v>
       </c>
       <c r="AA36" s="7"/>
@@ -44426,7 +44425,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE36" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF36" s="35">
@@ -44451,7 +44450,7 @@
         <v>34</v>
       </c>
       <c r="AS36" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT36" s="35">
@@ -44482,7 +44481,7 @@
         <v>7.2082134851939577</v>
       </c>
       <c r="BC36" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-24.775920742994039</v>
       </c>
       <c r="BF36">
@@ -44531,7 +44530,7 @@
         <v>0.39808381136458942</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J37">
@@ -44576,7 +44575,7 @@
         <v>-1.8299846757989897</v>
       </c>
       <c r="Z37" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.7518638704298226</v>
       </c>
       <c r="AA37" s="7"/>
@@ -44588,7 +44587,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE37" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF37" s="35">
@@ -44613,7 +44612,7 @@
         <v>35</v>
       </c>
       <c r="AS37" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT37" s="35">
@@ -44644,7 +44643,7 @@
         <v>6.8153467071237035</v>
       </c>
       <c r="BC37" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-25.168787521064296</v>
       </c>
       <c r="BF37">
@@ -44693,7 +44692,7 @@
         <v>0.39298875101388175</v>
       </c>
       <c r="I38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J38">
@@ -44738,7 +44737,7 @@
         <v>-2.2561107916686334</v>
       </c>
       <c r="Z38" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.1779899862994663</v>
       </c>
       <c r="AA38" s="7"/>
@@ -44750,7 +44749,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE38" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF38" s="35">
@@ -44775,7 +44774,7 @@
         <v>36</v>
       </c>
       <c r="AS38" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT38" s="35">
@@ -44806,7 +44805,7 @@
         <v>6.1723695063924131</v>
       </c>
       <c r="BC38" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-25.811764721795583</v>
       </c>
       <c r="BF38">
@@ -44855,7 +44854,7 @@
         <v>0.40217260364115048</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J39">
@@ -44900,7 +44899,7 @@
         <v>-1.8667556145578903</v>
       </c>
       <c r="Z39" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.7886348091887232</v>
       </c>
       <c r="AA39" s="7"/>
@@ -44912,7 +44911,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE39" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF39" s="35">
@@ -44937,7 +44936,7 @@
         <v>37</v>
       </c>
       <c r="AS39" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT39" s="35">
@@ -44968,7 +44967,7 @@
         <v>5.7574294235821188</v>
       </c>
       <c r="BC39" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-26.22670480460588</v>
       </c>
       <c r="BF39">
@@ -45017,7 +45016,7 @@
         <v>0.40912202985945856</v>
       </c>
       <c r="I40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J40">
@@ -45062,7 +45061,7 @@
         <v>-1.8081210637536103</v>
       </c>
       <c r="Z40" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.7300002583844432</v>
       </c>
       <c r="AA40" s="7"/>
@@ -45074,7 +45073,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE40" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF40" s="35">
@@ -45099,7 +45098,7 @@
         <v>38</v>
       </c>
       <c r="AS40" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT40" s="35">
@@ -45130,7 +45129,7 @@
         <v>4.9567167097684059</v>
       </c>
       <c r="BC40" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-27.02741751841959</v>
       </c>
       <c r="BF40">
@@ -45179,7 +45178,7 @@
         <v>0.40697861149457748</v>
       </c>
       <c r="I41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J41">
@@ -45224,7 +45223,7 @@
         <v>-3.4002256082914681</v>
       </c>
       <c r="Z41" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3.322104802922301</v>
       </c>
       <c r="AA41" s="7"/>
@@ -45236,7 +45235,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE41" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF41" s="35">
@@ -45261,7 +45260,7 @@
         <v>39</v>
       </c>
       <c r="AS41" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT41" s="35">
@@ -45292,7 +45291,7 @@
         <v>5.2184969121526183</v>
       </c>
       <c r="BC41" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-26.765637316035381</v>
       </c>
       <c r="BF41">
@@ -45341,7 +45340,7 @@
         <v>0.40482856385340343</v>
       </c>
       <c r="I42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J42">
@@ -45386,7 +45385,7 @@
         <v>-4.0472770352928302</v>
       </c>
       <c r="Z42" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3.9691562299236631</v>
       </c>
       <c r="AA42" s="7"/>
@@ -45398,7 +45397,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE42" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF42" s="35">
@@ -45423,7 +45422,7 @@
         <v>40</v>
       </c>
       <c r="AS42" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT42" s="35">
@@ -45454,7 +45453,7 @@
         <v>5.5075013358158715</v>
       </c>
       <c r="BC42" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-26.476632892372127</v>
       </c>
       <c r="BF42">
@@ -45503,7 +45502,7 @@
         <v>0.40870473119638812</v>
       </c>
       <c r="I43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J43">
@@ -45548,7 +45547,7 @@
         <v>-5.6900158179959996</v>
       </c>
       <c r="Z43" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.6118950126268325</v>
       </c>
       <c r="AA43" s="7"/>
@@ -45560,7 +45559,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE43" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF43" s="35">
@@ -45585,7 +45584,7 @@
         <v>41</v>
       </c>
       <c r="AS43" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT43" s="35">
@@ -45616,7 +45615,7 @@
         <v>5.4077012636140465</v>
       </c>
       <c r="BC43" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-26.57643296457395</v>
       </c>
       <c r="BF43">
@@ -45665,7 +45664,7 @@
         <v>0.4052971722510969</v>
       </c>
       <c r="I44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J44">
@@ -45710,7 +45709,7 @@
         <v>-6.399504687749733</v>
       </c>
       <c r="Z44" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-6.3213838823805659</v>
       </c>
       <c r="AA44" s="7"/>
@@ -45722,7 +45721,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE44" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF44" s="35">
@@ -45747,7 +45746,7 @@
         <v>42</v>
       </c>
       <c r="AS44" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT44" s="35">
@@ -45778,7 +45777,7 @@
         <v>5.5531198456859299</v>
       </c>
       <c r="BC44" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-26.431014382502067</v>
       </c>
       <c r="BF44">
@@ -45827,7 +45826,7 @@
         <v>0.3996690429556144</v>
       </c>
       <c r="I45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J45">
@@ -45872,7 +45871,7 @@
         <v>-8.1366926260846419</v>
       </c>
       <c r="Z45" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-8.0585718207154748</v>
       </c>
       <c r="AA45" s="7"/>
@@ -45884,7 +45883,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE45" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF45" s="35">
@@ -45909,7 +45908,7 @@
         <v>43</v>
       </c>
       <c r="AS45" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT45" s="35">
@@ -45940,7 +45939,7 @@
         <v>6.1078108008579788</v>
       </c>
       <c r="BC45" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-25.876323427330018</v>
       </c>
       <c r="BF45">
@@ -45989,7 +45988,7 @@
         <v>0.40841295088978113</v>
       </c>
       <c r="I46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J46">
@@ -46034,7 +46033,7 @@
         <v>-8.7248446561547066</v>
       </c>
       <c r="Z46" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-8.6467238507855395</v>
       </c>
       <c r="AA46" s="7"/>
@@ -46046,7 +46045,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE46" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF46" s="35">
@@ -46071,7 +46070,7 @@
         <v>44</v>
       </c>
       <c r="AS46" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT46" s="35">
@@ -46102,7 +46101,7 @@
         <v>5.8111794264079535</v>
       </c>
       <c r="BC46" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-26.172954801780044</v>
       </c>
       <c r="BF46">
@@ -46151,7 +46150,7 @@
         <v>0.40383434553486558</v>
       </c>
       <c r="I47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J47">
@@ -46196,7 +46195,7 @@
         <v>-9.9693904073474151</v>
       </c>
       <c r="Z47" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-9.891269601978248</v>
       </c>
       <c r="AA47" s="7"/>
@@ -46208,7 +46207,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE47" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF47" s="35">
@@ -46233,7 +46232,7 @@
         <v>45</v>
       </c>
       <c r="AS47" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT47" s="35">
@@ -46264,7 +46263,7 @@
         <v>6.3214350920327549</v>
       </c>
       <c r="BC47" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-25.662699136155243</v>
       </c>
       <c r="BF47">
@@ -46313,7 +46312,7 @@
         <v>0.40448416730050829</v>
       </c>
       <c r="I48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J48">
@@ -46358,7 +46357,7 @@
         <v>-11.117712334886495</v>
       </c>
       <c r="Z48" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-11.039591529517327</v>
       </c>
       <c r="AA48" s="7"/>
@@ -46370,7 +46369,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE48" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF48" s="35">
@@ -46395,7 +46394,7 @@
         <v>46</v>
       </c>
       <c r="AS48" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT48" s="35">
@@ -46426,7 +46425,7 @@
         <v>6.6536544637499357</v>
       </c>
       <c r="BC48" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-25.33047976443806</v>
       </c>
       <c r="BF48">
@@ -46475,7 +46474,7 @@
         <v>0.40748928918027277</v>
       </c>
       <c r="I49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J49">
@@ -46520,7 +46519,7 @@
         <v>-11.694463865511269</v>
       </c>
       <c r="Z49" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-11.616343060142102</v>
       </c>
       <c r="AA49" s="7"/>
@@ -46532,7 +46531,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE49" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF49" s="35">
@@ -46557,7 +46556,7 @@
         <v>47</v>
       </c>
       <c r="AS49" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT49" s="35">
@@ -46588,7 +46587,7 @@
         <v>7.1524506656993365</v>
       </c>
       <c r="BC49" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-24.83168356248866</v>
       </c>
       <c r="BF49">
@@ -46637,7 +46636,7 @@
         <v>0.40838712224304219</v>
       </c>
       <c r="I50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J50">
@@ -46682,7 +46681,7 @@
         <v>-12.083038142918699</v>
       </c>
       <c r="Z50" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-12.004917337549532</v>
       </c>
       <c r="AA50" s="7"/>
@@ -46694,7 +46693,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE50" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF50" s="35">
@@ -46719,7 +46718,7 @@
         <v>48</v>
       </c>
       <c r="AS50" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT50" s="35">
@@ -46750,7 +46749,7 @@
         <v>7.4831583396734569</v>
       </c>
       <c r="BC50" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-24.500975888514539</v>
       </c>
       <c r="BF50">
@@ -46799,7 +46798,7 @@
         <v>0.40328054243569156</v>
       </c>
       <c r="I51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J51">
@@ -46844,7 +46843,7 @@
         <v>-21.493790548365958</v>
       </c>
       <c r="Z51" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-21.415669742996791</v>
       </c>
       <c r="AA51" s="7"/>
@@ -46856,7 +46855,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE51" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF51" s="35">
@@ -46881,7 +46880,7 @@
         <v>49</v>
       </c>
       <c r="AS51" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT51" s="35">
@@ -46912,7 +46911,7 @@
         <v>8.24275372638383</v>
       </c>
       <c r="BC51" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.741380501804166</v>
       </c>
       <c r="BF51">
@@ -46961,7 +46960,7 @@
         <v>0.40265274213366892</v>
       </c>
       <c r="I52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J52">
@@ -47006,7 +47005,7 @@
         <v>-21.942990054079853</v>
       </c>
       <c r="Z52" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-21.864869248710686</v>
       </c>
       <c r="AA52" s="7"/>
@@ -47018,7 +47017,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE52" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF52" s="35">
@@ -47043,7 +47042,7 @@
         <v>50</v>
       </c>
       <c r="AS52" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT52" s="35">
@@ -47074,7 +47073,7 @@
         <v>8.3427682084036849</v>
       </c>
       <c r="BC52" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.641366019784314</v>
       </c>
       <c r="BF52">
@@ -47123,7 +47122,7 @@
         <v>0.35016477170553484</v>
       </c>
       <c r="I53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J53">
@@ -47168,7 +47167,7 @@
         <v>-20.879853130713865</v>
       </c>
       <c r="Z53" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.801732325344698</v>
       </c>
       <c r="AA53" s="7"/>
@@ -47180,7 +47179,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE53" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF53" s="35">
@@ -47205,7 +47204,7 @@
         <v>51</v>
       </c>
       <c r="AS53" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT53" s="35">
@@ -47236,7 +47235,7 @@
         <v>10.897573383785485</v>
       </c>
       <c r="BC53" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-21.086560844402513</v>
       </c>
       <c r="BF53">
@@ -47285,7 +47284,7 @@
         <v>0.39439698073249452</v>
       </c>
       <c r="I54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J54">
@@ -47330,7 +47329,7 @@
         <v>-19.972620388383149</v>
       </c>
       <c r="Z54" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-19.894499583013982</v>
       </c>
       <c r="AA54" s="7"/>
@@ -47342,7 +47341,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE54" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF54" s="35">
@@ -47367,7 +47366,7 @@
         <v>52</v>
       </c>
       <c r="AS54" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT54" s="35">
@@ -47398,7 +47397,7 @@
         <v>10.282037017010875</v>
       </c>
       <c r="BC54" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-21.702097211177122</v>
       </c>
       <c r="BF54">
@@ -47447,7 +47446,7 @@
         <v>0.39862479497692255</v>
       </c>
       <c r="I55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J55">
@@ -47492,7 +47491,7 @@
         <v>-20.8079653949932</v>
       </c>
       <c r="Z55" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.729844589624033</v>
       </c>
       <c r="AA55" s="7"/>
@@ -47504,7 +47503,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE55" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF55" s="35">
@@ -47529,7 +47528,7 @@
         <v>53</v>
       </c>
       <c r="AS55" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT55" s="35">
@@ -47560,7 +47559,7 @@
         <v>9.6522900523789268</v>
       </c>
       <c r="BC55" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-22.331844175809071</v>
       </c>
       <c r="BF55">
@@ -47609,7 +47608,7 @@
         <v>0.39770281483385711</v>
       </c>
       <c r="I56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J56">
@@ -47654,7 +47653,7 @@
         <v>-20.916829905614645</v>
       </c>
       <c r="Z56" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.838709100245477</v>
       </c>
       <c r="AA56" s="7"/>
@@ -47666,7 +47665,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE56" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF56" s="35">
@@ -47691,7 +47690,7 @@
         <v>54</v>
       </c>
       <c r="AS56" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT56" s="35">
@@ -47722,7 +47721,7 @@
         <v>9.2375034365717905</v>
       </c>
       <c r="BC56" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-22.746630791616205</v>
       </c>
       <c r="BF56">
@@ -47771,7 +47770,7 @@
         <v>0.39378015399281435</v>
       </c>
       <c r="I57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J57">
@@ -47816,7 +47815,7 @@
         <v>-21.225075511156554</v>
       </c>
       <c r="Z57" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-21.146954705787387</v>
       </c>
       <c r="AA57" s="7"/>
@@ -47828,7 +47827,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE57" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF57" s="35">
@@ -47853,7 +47852,7 @@
         <v>55</v>
       </c>
       <c r="AS57" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT57" s="35">
@@ -47884,7 +47883,7 @@
         <v>8.8152678460270426</v>
       </c>
       <c r="BC57" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.168866382160957</v>
       </c>
       <c r="BF57">
@@ -47933,7 +47932,7 @@
         <v>0.37334144600277086</v>
       </c>
       <c r="I58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J58">
@@ -47978,7 +47977,7 @@
         <v>-21.18484154817261</v>
       </c>
       <c r="Z58" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-21.106720742803443</v>
       </c>
       <c r="AA58" s="7"/>
@@ -47990,7 +47989,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE58" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF58" s="35">
@@ -48015,7 +48014,7 @@
         <v>56</v>
       </c>
       <c r="AS58" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT58" s="35">
@@ -48046,7 +48045,7 @@
         <v>8.8597178569405006</v>
       </c>
       <c r="BC58" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.124416371247499</v>
       </c>
       <c r="BF58">
@@ -48095,7 +48094,7 @@
         <v>0.37899726622801055</v>
       </c>
       <c r="I59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J59">
@@ -48140,7 +48139,7 @@
         <v>-11.073394733769861</v>
       </c>
       <c r="Z59" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-10.995273928400694</v>
       </c>
       <c r="AA59" s="7"/>
@@ -48152,7 +48151,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE59" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF59" s="35">
@@ -48177,7 +48176,7 @@
         <v>57</v>
       </c>
       <c r="AS59" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT59" s="35">
@@ -48208,7 +48207,7 @@
         <v>7.9041338314184983</v>
       </c>
       <c r="BC59" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-24.080000396769499</v>
       </c>
       <c r="BF59">
@@ -48257,7 +48256,7 @@
         <v>0.43657444926628292</v>
       </c>
       <c r="I60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J60">
@@ -48302,7 +48301,7 @@
         <v>-21.275818103570245</v>
       </c>
       <c r="Z60" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-21.197697298201078</v>
       </c>
       <c r="AA60" s="7"/>
@@ -48314,7 +48313,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE60" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF60" s="35">
@@ -48339,7 +48338,7 @@
         <v>58</v>
       </c>
       <c r="AS60" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT60" s="35">
@@ -48370,7 +48369,7 @@
         <v>8.8825856902741087</v>
       </c>
       <c r="BC60" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.101548537913889</v>
       </c>
       <c r="BF60">
@@ -48419,7 +48418,7 @@
         <v>0.41376355796893582</v>
       </c>
       <c r="I61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J61">
@@ -48464,7 +48463,7 @@
         <v>-21.643353053216014</v>
       </c>
       <c r="Z61" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-21.565232247846847</v>
       </c>
       <c r="AA61" s="7"/>
@@ -48476,7 +48475,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE61" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF61" s="35">
@@ -48501,7 +48500,7 @@
         <v>59</v>
       </c>
       <c r="AS61" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT61" s="35">
@@ -48532,7 +48531,7 @@
         <v>8.3827623281344792</v>
       </c>
       <c r="BC61" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.601371900053518</v>
       </c>
       <c r="BF61">
@@ -48581,7 +48580,7 @@
         <v>0.4056154171207203</v>
       </c>
       <c r="I62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J62">
@@ -48626,7 +48625,7 @@
         <v>-21.152298571053404</v>
       </c>
       <c r="Z62" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-21.074177765684237</v>
       </c>
       <c r="AA62" s="7"/>
@@ -48638,7 +48637,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE62" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF62" s="35">
@@ -48663,7 +48662,7 @@
         <v>60</v>
       </c>
       <c r="AS62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT62" s="35">
@@ -48694,7 +48693,7 @@
         <v>8.3986242338531518</v>
       </c>
       <c r="BC62" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.585509994334846</v>
       </c>
       <c r="BF62">
@@ -48743,7 +48742,7 @@
         <v>0.40255906910217931</v>
       </c>
       <c r="I63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J63">
@@ -48788,7 +48787,7 @@
         <v>-20.648864661772752</v>
       </c>
       <c r="Z63" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.570743856403585</v>
       </c>
       <c r="AA63" s="7"/>
@@ -48800,7 +48799,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE63" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF63" s="35">
@@ -48825,7 +48824,7 @@
         <v>61</v>
       </c>
       <c r="AS63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT63" s="35">
@@ -48856,7 +48855,7 @@
         <v>8.6862674441226098</v>
       </c>
       <c r="BC63" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.297866784065388</v>
       </c>
       <c r="BF63">
@@ -48905,7 +48904,7 @@
         <v>0.40397038507786931</v>
       </c>
       <c r="I64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J64">
@@ -48950,7 +48949,7 @@
         <v>-20.491798477144794</v>
       </c>
       <c r="Z64" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.413677671775627</v>
       </c>
       <c r="AA64" s="7"/>
@@ -48962,7 +48961,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE64" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF64" s="35">
@@ -48987,7 +48986,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT64" s="35">
@@ -49018,7 +49017,7 @@
         <v>8.4676226231372098</v>
       </c>
       <c r="BC64" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.516511605050788</v>
       </c>
       <c r="BF64">
@@ -49067,7 +49066,7 @@
         <v>0.40120055619573641</v>
       </c>
       <c r="I65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J65">
@@ -49112,7 +49111,7 @@
         <v>-20.599922050899252</v>
       </c>
       <c r="Z65" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.521801245530085</v>
       </c>
       <c r="AA65" s="7"/>
@@ -49124,7 +49123,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE65" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF65" s="35">
@@ -49149,7 +49148,7 @@
         <v>63</v>
       </c>
       <c r="AS65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT65" s="35">
@@ -49180,7 +49179,7 @@
         <v>8.5644522932358171</v>
       </c>
       <c r="BC65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.41968193495218</v>
       </c>
       <c r="BF65">
@@ -49229,7 +49228,7 @@
         <v>0.40745532626925285</v>
       </c>
       <c r="I66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J66">
@@ -49274,7 +49273,7 @@
         <v>-20.777742872493086</v>
       </c>
       <c r="Z66" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.699622067123919</v>
       </c>
       <c r="AA66" s="7"/>
@@ -49286,7 +49285,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE66" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF66" s="35">
@@ -49311,7 +49310,7 @@
         <v>64</v>
       </c>
       <c r="AS66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-173.70068867114094</v>
       </c>
       <c r="AT66" s="35">
@@ -49342,7 +49341,7 @@
         <v>8.0508362764014798</v>
       </c>
       <c r="BC66" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.933297951786518</v>
       </c>
       <c r="BF66">
@@ -49391,7 +49390,7 @@
         <v>0.41605394207137036</v>
       </c>
       <c r="I67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="J67">
@@ -49436,7 +49435,7 @@
         <v>-20.334693392292269</v>
       </c>
       <c r="Z67" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-20.256572586923102</v>
       </c>
       <c r="AA67" s="7"/>
@@ -49448,7 +49447,7 @@
         <v>86.948445006711324</v>
       </c>
       <c r="AE67" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.940189682004132</v>
       </c>
       <c r="AF67" s="35">
@@ -49504,7 +49503,7 @@
         <v>8.0429633418908963</v>
       </c>
       <c r="BC67" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-23.941170886297101</v>
       </c>
       <c r="BF67">
@@ -56828,8 +56827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D243993-6888-4827-B452-79EC8EF5F1BE}">
   <dimension ref="A1:BX113"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView topLeftCell="S1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -57084,7 +57083,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="51" t="s">
         <v>136</v>
       </c>
       <c r="P2" s="3"/>
@@ -57126,7 +57125,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="3"/>
-      <c r="AJ2" s="52" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>136</v>
       </c>
       <c r="AK2" s="3"/>
@@ -57168,7 +57167,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="52" t="s">
+      <c r="BE2" s="51" t="s">
         <v>136</v>
       </c>
       <c r="BF2" s="3"/>
@@ -78714,8 +78713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00492171-1ECB-487D-8221-AFEF962BF773}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
